--- a/Zadanie4/sprawko/dane_pomiarowe.xlsx
+++ b/Zadanie4/sprawko/dane_pomiarowe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wrobl\Documents\GitHub\Projekt_PEA\Zadanie4\sprawko\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wrobl\Desktop\CupWon PEA\Projekt_PEA\Zadanie4\sprawko\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4BCACA-27D1-4628-B14C-03CF06B438D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2098C4-896F-4120-89D3-ACAD13F7CF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="525">
   <si>
     <t>plik</t>
   </si>
@@ -1606,6 +1606,72 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>nr</t>
+  </si>
+  <si>
+    <t>brute</t>
+  </si>
+  <si>
+    <t>held</t>
+  </si>
+  <si>
+    <t>SA100</t>
+  </si>
+  <si>
+    <t>SA70</t>
+  </si>
+  <si>
+    <t>SA50</t>
+  </si>
+  <si>
+    <t>SA30</t>
+  </si>
+  <si>
+    <t>burma14.tsp</t>
+  </si>
+  <si>
+    <t>gr17.tsp</t>
+  </si>
+  <si>
+    <t>gr21.tsp</t>
+  </si>
+  <si>
+    <t>gr24.tsp</t>
+  </si>
+  <si>
+    <t>bays29.tsp</t>
+  </si>
+  <si>
+    <t>ftv33.atsp</t>
+  </si>
+  <si>
+    <t>ftv44.atsp</t>
+  </si>
+  <si>
+    <t>ft53.atsp</t>
+  </si>
+  <si>
+    <t>ch150.tsp</t>
+  </si>
+  <si>
+    <t>gr202.tsp</t>
+  </si>
+  <si>
+    <t>pcb442.tsp</t>
+  </si>
+  <si>
+    <t>gr666.tsp</t>
+  </si>
+  <si>
+    <t>pr1002.tsp</t>
+  </si>
+  <si>
+    <t>pr2392.tsp</t>
+  </si>
+  <si>
+    <t>ACO</t>
   </si>
 </sst>
 </file>
@@ -1613,7 +1679,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1692,12 +1758,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2798,7 +2864,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.6608390578466527E-2"/>
+          <c:y val="4.5980312670340293E-2"/>
+          <c:w val="0.76710385360128863"/>
+          <c:h val="0.85396082688616815"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2810,63 +2886,41 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="exp"/>
-            <c:forward val="3"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'ostateczny wykres'!$B$35:$B$40</c:f>
+              <c:f>'ostateczny wykres'!$B$46:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
@@ -2874,32 +2928,35 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ostateczny wykres'!$C$35:$C$40</c:f>
+              <c:f>'ostateczny wykres'!$C$46:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>447</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1896</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>4194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9959-4A67-A415-4FCABDFE32DE}"/>
@@ -2910,68 +2967,45 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>symulowane wyżarzanie</c:v>
+            <c:v>SA</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:backward val="100"/>
-            <c:intercept val="1"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'ostateczny wykres'!$D$35:$D$40</c:f>
+              <c:f>'ostateczny wykres'!$D$47:$D$533</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="487"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>96</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>152</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>170</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>323</c:v>
                 </c:pt>
               </c:numCache>
@@ -2979,35 +3013,129 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ostateczny wykres'!$E$35:$E$40</c:f>
+              <c:f>'ostateczny wykres'!$E$47:$E$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-9959-4A67-A415-4FCABDFE32DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ACO</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ostateczny wykres'!$F$35:$F$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ostateczny wykres'!$G$35:$G$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>447</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F6F7-4FE5-AD37-9920AB289BEA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3026,7 +3154,7 @@
         <c:axId val="917113119"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="323"/>
+          <c:max val="2000"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3066,7 +3194,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pl-PL"/>
-                  <a:t>Wielkość instancji</a:t>
+                  <a:t>Wielkość instancji[n]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3145,7 +3273,7 @@
         <c:axId val="917113951"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="4500"/>
+          <c:max val="4000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3269,6 +3397,935 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.86814256014808544"/>
+          <c:y val="0.42637383023457154"/>
+          <c:w val="0.1309119068326737"/>
+          <c:h val="0.14725233953085706"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Brute-Force</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:name>Brute-Force</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>'ostateczny wykres'!$Y$4:$Y$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ostateczny wykres'!$Z$4:$Z$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.0027199999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9025299999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2213108469999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>332.52212059999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2007.6682000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0A30-4B0B-93F0-316A92D3CD63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Held-Karp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:name>Held-Karp</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:forward val="1"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'ostateczny wykres'!$AA$4:$AA$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.1000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6806999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.6935</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102.376</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>451.28489999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0A30-4B0B-93F0-316A92D3CD63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SA100</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:name>SA100%błędu</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:forward val="1"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'ostateczny wykres'!$AB$4:$AB$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="12" formatCode="0.0000">
+                  <c:v>0.27805547714233397</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0000">
+                  <c:v>0.67440104484558105</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0000">
+                  <c:v>2.4660522222518919</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0000">
+                  <c:v>6.7798469066619873</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0000">
+                  <c:v>7.7829630374908447</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.0000">
+                  <c:v>9.825824499130249</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0A30-4B0B-93F0-316A92D3CD63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>SA70</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:name>SA70%błędu</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'ostateczny wykres'!$AC$4:$AC$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="12" formatCode="0.0000">
+                  <c:v>1.0412428855895997</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0000">
+                  <c:v>2.6414248228073118</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.0000">
+                  <c:v>12.272802829742432</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.0000">
+                  <c:v>108.35242223739624</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.0000">
+                  <c:v>111.60823559761047</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.0000">
+                  <c:v>99.236297369003296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-0A30-4B0B-93F0-316A92D3CD63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>SA50</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:name>SA50%błędu</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'ostateczny wykres'!$AD$4:$AD$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="12">
+                  <c:v>2.8529000282287598</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.6530065536499023</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33.74681568145752</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>365.97075104710001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>382.03482580184937</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>453.57038998603798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-0A30-4B0B-93F0-316A92D3CD63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>SA30</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:name>SA30%błędu</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'ostateczny wykres'!$AE$4:$AE$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="12">
+                  <c:v>92.251279830932617</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>95.293201446533203</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>865.183012247085</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>732.07874274253845</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1532.0787</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-0A30-4B0B-93F0-316A92D3CD63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>ACO</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:name>ACO</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:forward val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>'ostateczny wykres'!$AF$4:$AF$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="4">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.8999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.36099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.9279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>31.777999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-0A30-4B0B-93F0-316A92D3CD63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1380160671"/>
+        <c:axId val="1380168159"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1380160671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Wielkość instancji[n]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1380168159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1380168159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas[s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1380160671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10669,7 +11726,17 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.5192595228921002E-2"/>
+          <c:y val="3.1773541305603697E-2"/>
+          <c:w val="0.83435600144997457"/>
+          <c:h val="0.86018686572324043"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -10687,21 +11754,10 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:trendline>
+            <c:name>SA błąd100%</c:name>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
@@ -10792,27 +11848,16 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:trendline>
+            <c:name>SA błąd70%</c:name>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -10891,27 +11936,16 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:trendline>
+            <c:name>SA błąd50%</c:name>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
-                <a:prstDash val="dash"/>
+                <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -10977,27 +12011,16 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:trendline>
+            <c:name>SA błąd30%</c:name>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -11009,20 +12032,23 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'ostateczny wykres'!$O$2:$O$6</c:f>
+              <c:f>'ostateczny wykres'!$O$1:$O$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>96</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>323</c:v>
                 </c:pt>
               </c:numCache>
@@ -11067,27 +12093,16 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:trendline>
+            <c:name>Brute-Force</c:name>
             <c:spPr>
               <a:ln w="19050" cap="rnd" cmpd="tri">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:srgbClr val="C00000"/>
                 </a:solidFill>
-                <a:prstDash val="lgDashDot"/>
+                <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -11168,27 +12183,16 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:trendline>
+            <c:name>Held-Karp</c:name>
             <c:spPr>
               <a:ln w="19050" cap="rnd" cmpd="dbl">
                 <a:solidFill>
                   <a:schemeClr val="accent6"/>
                 </a:solidFill>
-                <a:prstDash val="lgDash"/>
+                <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -11256,6 +12260,148 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-FA45-4593-BA05-E019EC9C8A49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>ACO</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:name>ACO</c:name>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('ostateczny wykres'!$Y$3,'ostateczny wykres'!$Y$8,'ostateczny wykres'!$Y$10:$Y$15,'ostateczny wykres'!$Y$19,'ostateczny wykres'!$Y$22,'ostateczny wykres'!$Y$24:$Y$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('ostateczny wykres'!$AF$3,'ostateczny wykres'!$AF$8,'ostateczny wykres'!$AF$10:$AF$15,'ostateczny wykres'!$AF$18,'ostateczny wykres'!$AF$22,'ostateczny wykres'!$AF$24:$AF$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1E-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.777999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C6B2-4A0D-B80D-B49018263BD7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11274,6 +12420,7 @@
         <c:axId val="1602257743"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -11312,7 +12459,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pl-PL"/>
-                  <a:t>Wielkość instancji</a:t>
+                  <a:t>Wielkość instancji[n]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -11464,7 +12611,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11515,6 +12662,34 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11632,6 +12807,46 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13023,6 +14238,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -17448,16 +19166,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17484,16 +19202,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>617220</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>131445</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>405765</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17513,6 +19231,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60FA0156-22B0-EED8-6C41-386E3DEF773C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -17940,16 +19694,16 @@
       <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="80.6640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="80.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17972,7 +19726,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -17995,7 +19749,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -18021,7 +19775,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -18044,7 +19798,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -18070,7 +19824,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -18093,7 +19847,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -18116,7 +19870,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -18139,7 +19893,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -18162,7 +19916,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -18185,7 +19939,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -18208,7 +19962,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -18231,7 +19985,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -18254,7 +20008,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -18277,7 +20031,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -18300,7 +20054,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -18323,7 +20077,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -18346,7 +20100,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -18369,7 +20123,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -18392,7 +20146,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -18415,7 +20169,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -18438,7 +20192,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -18461,7 +20215,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -18484,7 +20238,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -18510,7 +20264,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -18533,7 +20287,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -18556,7 +20310,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -18579,7 +20333,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -18602,7 +20356,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -18625,7 +20379,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -18648,7 +20402,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -18671,7 +20425,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -18694,7 +20448,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -18717,7 +20471,7 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -18740,7 +20494,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -18763,7 +20517,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -18786,7 +20540,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -18809,7 +20563,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -18832,7 +20586,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -18855,7 +20609,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -18878,7 +20632,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -18901,7 +20655,7 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -18924,7 +20678,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -18950,7 +20704,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -18973,7 +20727,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -18996,7 +20750,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -19019,7 +20773,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -19042,7 +20796,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -19065,7 +20819,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -19088,7 +20842,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -19111,7 +20865,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -19134,7 +20888,7 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -19157,7 +20911,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -19180,7 +20934,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -19203,7 +20957,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -19226,7 +20980,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -19249,7 +21003,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -19272,7 +21026,7 @@
         <v>5700</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -19295,7 +21049,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -19318,7 +21072,7 @@
         <v>5900</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -19341,7 +21095,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -19364,7 +21118,7 @@
         <v>6100</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -19390,7 +21144,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -19413,7 +21167,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -19436,7 +21190,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -19459,7 +21213,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -19482,7 +21236,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -19505,7 +21259,7 @@
         <v>6700</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -19528,7 +21282,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -19551,7 +21305,7 @@
         <v>6900</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -19574,7 +21328,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -19597,7 +21351,7 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -19620,7 +21374,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -19643,7 +21397,7 @@
         <v>7300</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -19666,7 +21420,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -19689,7 +21443,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -19712,7 +21466,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -19735,7 +21489,7 @@
         <v>7700</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -19758,7 +21512,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -19781,7 +21535,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -19804,7 +21558,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -19827,7 +21581,7 @@
         <v>8100</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -19850,7 +21604,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -19873,7 +21627,7 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -19896,7 +21650,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -19919,7 +21673,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>6</v>
       </c>
@@ -19942,7 +21696,7 @@
         <v>8600</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>6</v>
       </c>
@@ -19965,7 +21719,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>6</v>
       </c>
@@ -19988,7 +21742,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -20011,7 +21765,7 @@
         <v>8900</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -20034,7 +21788,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>6</v>
       </c>
@@ -20057,7 +21811,7 @@
         <v>9100</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -20080,7 +21834,7 @@
         <v>9200</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -20103,7 +21857,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>6</v>
       </c>
@@ -20126,7 +21880,7 @@
         <v>9400</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>6</v>
       </c>
@@ -20149,7 +21903,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -20172,7 +21926,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>6</v>
       </c>
@@ -20195,7 +21949,7 @@
         <v>9700</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>6</v>
       </c>
@@ -20218,7 +21972,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>6</v>
       </c>
@@ -20241,7 +21995,7 @@
         <v>9900</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>6</v>
       </c>
@@ -20264,7 +22018,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -20287,7 +22041,7 @@
         <v>10100</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>6</v>
       </c>
@@ -20310,7 +22064,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -20333,7 +22087,7 @@
         <v>10300</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>6</v>
       </c>
@@ -20356,7 +22110,7 @@
         <v>10400</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>6</v>
       </c>
@@ -20379,7 +22133,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>6</v>
       </c>
@@ -20402,7 +22156,7 @@
         <v>10600</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>6</v>
       </c>
@@ -20425,7 +22179,7 @@
         <v>10700</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>6</v>
       </c>
@@ -20448,7 +22202,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>6</v>
       </c>
@@ -20471,7 +22225,7 @@
         <v>10900</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>6</v>
       </c>
@@ -20494,7 +22248,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>6</v>
       </c>
@@ -20514,7 +22268,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>6</v>
       </c>
@@ -20534,7 +22288,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>6</v>
       </c>
@@ -20554,7 +22308,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>6</v>
       </c>
@@ -20574,7 +22328,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -20594,7 +22348,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>6</v>
       </c>
@@ -20614,7 +22368,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -20634,7 +22388,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -20654,7 +22408,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>6</v>
       </c>
@@ -20674,7 +22428,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>6</v>
       </c>
@@ -20694,7 +22448,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>6</v>
       </c>
@@ -20714,7 +22468,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -20734,7 +22488,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -20754,7 +22508,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -20774,7 +22528,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>6</v>
       </c>
@@ -20794,7 +22548,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>6</v>
       </c>
@@ -20814,7 +22568,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>6</v>
       </c>
@@ -20834,7 +22588,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>6</v>
       </c>
@@ -20854,7 +22608,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>6</v>
       </c>
@@ -20874,7 +22628,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>6</v>
       </c>
@@ -20894,7 +22648,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>6</v>
       </c>
@@ -20914,7 +22668,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>6</v>
       </c>
@@ -20934,7 +22688,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>6</v>
       </c>
@@ -20954,7 +22708,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>6</v>
       </c>
@@ -20974,7 +22728,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>6</v>
       </c>
@@ -20994,7 +22748,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>6</v>
       </c>
@@ -21014,7 +22768,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>6</v>
       </c>
@@ -21034,7 +22788,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -21054,7 +22808,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -21074,7 +22828,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>6</v>
       </c>
@@ -21094,7 +22848,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>6</v>
       </c>
@@ -21114,7 +22868,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -21134,7 +22888,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -21154,7 +22908,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>6</v>
       </c>
@@ -21174,7 +22928,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>6</v>
       </c>
@@ -21194,7 +22948,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>6</v>
       </c>
@@ -21214,7 +22968,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>6</v>
       </c>
@@ -21234,7 +22988,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -21254,7 +23008,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>6</v>
       </c>
@@ -21274,7 +23028,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>6</v>
       </c>
@@ -21294,7 +23048,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -21314,7 +23068,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>6</v>
       </c>
@@ -21334,7 +23088,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>6</v>
       </c>
@@ -21354,7 +23108,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>6</v>
       </c>
@@ -21374,7 +23128,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -21394,7 +23148,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>6</v>
       </c>
@@ -21414,7 +23168,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>6</v>
       </c>
@@ -21434,7 +23188,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>6</v>
       </c>
@@ -21454,7 +23208,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>6</v>
       </c>
@@ -21474,7 +23228,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>6</v>
       </c>
@@ -21494,7 +23248,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>6</v>
       </c>
@@ -21514,7 +23268,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>6</v>
       </c>
@@ -21534,7 +23288,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>6</v>
       </c>
@@ -21554,7 +23308,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>6</v>
       </c>
@@ -21574,7 +23328,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>6</v>
       </c>
@@ -21594,7 +23348,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -21614,7 +23368,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>6</v>
       </c>
@@ -21634,7 +23388,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -21654,7 +23408,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>6</v>
       </c>
@@ -21674,7 +23428,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -21694,7 +23448,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>6</v>
       </c>
@@ -21714,7 +23468,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>6</v>
       </c>
@@ -21734,7 +23488,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>6</v>
       </c>
@@ -21754,7 +23508,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>6</v>
       </c>
@@ -21774,7 +23528,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>6</v>
       </c>
@@ -21794,7 +23548,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>6</v>
       </c>
@@ -21814,7 +23568,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>6</v>
       </c>
@@ -21834,7 +23588,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>6</v>
       </c>
@@ -21854,7 +23608,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>6</v>
       </c>
@@ -21874,7 +23628,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>6</v>
       </c>
@@ -21894,7 +23648,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>6</v>
       </c>
@@ -21914,7 +23668,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>6</v>
       </c>
@@ -21934,7 +23688,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>6</v>
       </c>
@@ -21954,7 +23708,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>6</v>
       </c>
@@ -21974,7 +23728,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>6</v>
       </c>
@@ -21994,7 +23748,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>6</v>
       </c>
@@ -22014,7 +23768,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>6</v>
       </c>
@@ -22034,7 +23788,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>6</v>
       </c>
@@ -22054,7 +23808,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>6</v>
       </c>
@@ -22074,7 +23828,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>6</v>
       </c>
@@ -22094,7 +23848,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>6</v>
       </c>
@@ -22114,7 +23868,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>6</v>
       </c>
@@ -22134,7 +23888,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>6</v>
       </c>
@@ -22154,7 +23908,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>6</v>
       </c>
@@ -22174,7 +23928,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>6</v>
       </c>
@@ -22194,7 +23948,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>6</v>
       </c>
@@ -22214,7 +23968,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>6</v>
       </c>
@@ -22234,7 +23988,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>6</v>
       </c>
@@ -22254,7 +24008,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>6</v>
       </c>
@@ -22274,7 +24028,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>6</v>
       </c>
@@ -22294,7 +24048,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>6</v>
       </c>
@@ -22314,7 +24068,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>6</v>
       </c>
@@ -22334,7 +24088,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>6</v>
       </c>
@@ -22354,7 +24108,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>6</v>
       </c>
@@ -22374,7 +24128,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>6</v>
       </c>
@@ -22394,7 +24148,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>6</v>
       </c>
@@ -22414,7 +24168,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>6</v>
       </c>
@@ -22434,7 +24188,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>6</v>
       </c>
@@ -22454,7 +24208,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>6</v>
       </c>
@@ -22474,7 +24228,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>6</v>
       </c>
@@ -22494,7 +24248,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>6</v>
       </c>
@@ -22514,7 +24268,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>6</v>
       </c>
@@ -22534,7 +24288,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>6</v>
       </c>
@@ -22554,7 +24308,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>6</v>
       </c>
@@ -22574,7 +24328,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>6</v>
       </c>
@@ -22594,7 +24348,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>6</v>
       </c>
@@ -22614,7 +24368,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -22634,7 +24388,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>6</v>
       </c>
@@ -22654,7 +24408,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>6</v>
       </c>
@@ -22674,7 +24428,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>6</v>
       </c>
@@ -22694,7 +24448,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>6</v>
       </c>
@@ -22714,7 +24468,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>6</v>
       </c>
@@ -22734,7 +24488,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>6</v>
       </c>
@@ -22754,7 +24508,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>6</v>
       </c>
@@ -22774,7 +24528,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>6</v>
       </c>
@@ -22794,7 +24548,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>6</v>
       </c>
@@ -22814,7 +24568,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>6</v>
       </c>
@@ -22834,7 +24588,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>6</v>
       </c>
@@ -22854,7 +24608,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>6</v>
       </c>
@@ -22874,7 +24628,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>6</v>
       </c>
@@ -22894,7 +24648,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>6</v>
       </c>
@@ -22914,7 +24668,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>6</v>
       </c>
@@ -22934,7 +24688,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>6</v>
       </c>
@@ -22954,7 +24708,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>6</v>
       </c>
@@ -22974,7 +24728,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>6</v>
       </c>
@@ -22994,7 +24748,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>6</v>
       </c>
@@ -23014,7 +24768,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>6</v>
       </c>
@@ -23034,7 +24788,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>6</v>
       </c>
@@ -23054,7 +24808,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>6</v>
       </c>
@@ -23074,7 +24828,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>6</v>
       </c>
@@ -23094,7 +24848,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>6</v>
       </c>
@@ -23114,7 +24868,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>6</v>
       </c>
@@ -23134,7 +24888,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>6</v>
       </c>
@@ -23154,7 +24908,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>6</v>
       </c>
@@ -23174,7 +24928,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>6</v>
       </c>
@@ -23194,7 +24948,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>6</v>
       </c>
@@ -23214,7 +24968,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>6</v>
       </c>
@@ -23234,7 +24988,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>6</v>
       </c>
@@ -23254,7 +25008,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>6</v>
       </c>
@@ -23274,7 +25028,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>6</v>
       </c>
@@ -23294,7 +25048,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>6</v>
       </c>
@@ -23314,7 +25068,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>6</v>
       </c>
@@ -23334,7 +25088,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>6</v>
       </c>
@@ -23354,7 +25108,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>6</v>
       </c>
@@ -23374,7 +25128,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>6</v>
       </c>
@@ -23394,7 +25148,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>6</v>
       </c>
@@ -23414,7 +25168,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>6</v>
       </c>
@@ -23434,7 +25188,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>6</v>
       </c>
@@ -23454,7 +25208,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>6</v>
       </c>
@@ -23474,7 +25228,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>6</v>
       </c>
@@ -23494,7 +25248,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>6</v>
       </c>
@@ -23514,7 +25268,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>6</v>
       </c>
@@ -23534,7 +25288,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>6</v>
       </c>
@@ -23554,7 +25308,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>6</v>
       </c>
@@ -23574,7 +25328,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>6</v>
       </c>
@@ -23594,7 +25348,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>6</v>
       </c>
@@ -23614,7 +25368,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>6</v>
       </c>
@@ -23634,7 +25388,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>6</v>
       </c>
@@ -23654,7 +25408,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -23674,7 +25428,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>6</v>
       </c>
@@ -23694,7 +25448,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>6</v>
       </c>
@@ -23714,7 +25468,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>6</v>
       </c>
@@ -23734,7 +25488,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>6</v>
       </c>
@@ -23754,7 +25508,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>6</v>
       </c>
@@ -23774,7 +25528,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>6</v>
       </c>
@@ -23794,7 +25548,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>6</v>
       </c>
@@ -23814,7 +25568,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>6</v>
       </c>
@@ -23834,7 +25588,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>6</v>
       </c>
@@ -23854,7 +25608,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>6</v>
       </c>
@@ -23874,7 +25628,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>6</v>
       </c>
@@ -23894,7 +25648,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>6</v>
       </c>
@@ -23914,7 +25668,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>6</v>
       </c>
@@ -23934,7 +25688,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>6</v>
       </c>
@@ -23954,7 +25708,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>6</v>
       </c>
@@ -23974,7 +25728,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>6</v>
       </c>
@@ -23994,7 +25748,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>6</v>
       </c>
@@ -24014,7 +25768,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>6</v>
       </c>
@@ -24034,7 +25788,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>6</v>
       </c>
@@ -24054,7 +25808,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>6</v>
       </c>
@@ -24074,7 +25828,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>6</v>
       </c>
@@ -24094,7 +25848,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>6</v>
       </c>
@@ -24114,7 +25868,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>6</v>
       </c>
@@ -24134,7 +25888,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>6</v>
       </c>
@@ -24154,7 +25908,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>6</v>
       </c>
@@ -24174,7 +25928,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>6</v>
       </c>
@@ -24194,7 +25948,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>6</v>
       </c>
@@ -24214,7 +25968,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>6</v>
       </c>
@@ -24234,7 +25988,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>6</v>
       </c>
@@ -24254,7 +26008,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>6</v>
       </c>
@@ -24274,7 +26028,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>6</v>
       </c>
@@ -24294,7 +26048,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>6</v>
       </c>
@@ -24314,7 +26068,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>6</v>
       </c>
@@ -24334,7 +26088,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>6</v>
       </c>
@@ -24354,7 +26108,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>6</v>
       </c>
@@ -24374,7 +26128,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>6</v>
       </c>
@@ -24394,7 +26148,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>6</v>
       </c>
@@ -24414,7 +26168,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>6</v>
       </c>
@@ -24434,7 +26188,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>6</v>
       </c>
@@ -24454,7 +26208,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>6</v>
       </c>
@@ -24474,7 +26228,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>6</v>
       </c>
@@ -24494,7 +26248,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>6</v>
       </c>
@@ -24514,7 +26268,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>6</v>
       </c>
@@ -24534,7 +26288,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>6</v>
       </c>
@@ -24554,7 +26308,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>6</v>
       </c>
@@ -24574,7 +26328,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>6</v>
       </c>
@@ -24594,7 +26348,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>6</v>
       </c>
@@ -24614,7 +26368,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>6</v>
       </c>
@@ -24634,7 +26388,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>6</v>
       </c>
@@ -24654,7 +26408,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>6</v>
       </c>
@@ -24674,7 +26428,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>6</v>
       </c>
@@ -24694,7 +26448,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>6</v>
       </c>
@@ -24714,7 +26468,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>6</v>
       </c>
@@ -24734,7 +26488,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>6</v>
       </c>
@@ -24754,7 +26508,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>6</v>
       </c>
@@ -24774,7 +26528,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>6</v>
       </c>
@@ -24794,7 +26548,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>6</v>
       </c>
@@ -24814,7 +26568,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>6</v>
       </c>
@@ -24834,7 +26588,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>6</v>
       </c>
@@ -24854,7 +26608,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>6</v>
       </c>
@@ -24874,7 +26628,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>6</v>
       </c>
@@ -24894,7 +26648,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>6</v>
       </c>
@@ -24914,7 +26668,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>6</v>
       </c>
@@ -24934,7 +26688,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>6</v>
       </c>
@@ -24954,7 +26708,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>6</v>
       </c>
@@ -24974,7 +26728,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>6</v>
       </c>
@@ -24994,7 +26748,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>6</v>
       </c>
@@ -25014,7 +26768,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>6</v>
       </c>
@@ -25034,7 +26788,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>6</v>
       </c>
@@ -25054,7 +26808,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>6</v>
       </c>
@@ -25074,7 +26828,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>6</v>
       </c>
@@ -25094,7 +26848,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>6</v>
       </c>
@@ -25114,7 +26868,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>6</v>
       </c>
@@ -25134,7 +26888,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>6</v>
       </c>
@@ -25154,7 +26908,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>6</v>
       </c>
@@ -25174,7 +26928,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>6</v>
       </c>
@@ -25194,7 +26948,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>6</v>
       </c>
@@ -25214,7 +26968,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>6</v>
       </c>
@@ -25234,7 +26988,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>6</v>
       </c>
@@ -25254,7 +27008,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>6</v>
       </c>
@@ -25274,7 +27028,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>6</v>
       </c>
@@ -25294,7 +27048,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>6</v>
       </c>
@@ -25314,7 +27068,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>6</v>
       </c>
@@ -25334,7 +27088,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>6</v>
       </c>
@@ -25354,7 +27108,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>6</v>
       </c>
@@ -25374,7 +27128,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>6</v>
       </c>
@@ -25394,7 +27148,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>6</v>
       </c>
@@ -25414,7 +27168,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>6</v>
       </c>
@@ -25434,7 +27188,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>6</v>
       </c>
@@ -25454,7 +27208,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>6</v>
       </c>
@@ -25474,7 +27228,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>6</v>
       </c>
@@ -25494,7 +27248,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>6</v>
       </c>
@@ -25514,7 +27268,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>6</v>
       </c>
@@ -25534,7 +27288,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>6</v>
       </c>
@@ -25554,7 +27308,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>6</v>
       </c>
@@ -25574,7 +27328,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>6</v>
       </c>
@@ -25594,7 +27348,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>6</v>
       </c>
@@ -25614,7 +27368,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>6</v>
       </c>
@@ -25634,7 +27388,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>6</v>
       </c>
@@ -25654,7 +27408,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>6</v>
       </c>
@@ -25674,7 +27428,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>6</v>
       </c>
@@ -25694,7 +27448,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>6</v>
       </c>
@@ -25714,7 +27468,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>6</v>
       </c>
@@ -25734,7 +27488,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>6</v>
       </c>
@@ -25754,7 +27508,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>6</v>
       </c>
@@ -25774,7 +27528,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>6</v>
       </c>
@@ -25794,7 +27548,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>6</v>
       </c>
@@ -25814,7 +27568,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>6</v>
       </c>
@@ -25834,7 +27588,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>6</v>
       </c>
@@ -25854,7 +27608,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>6</v>
       </c>
@@ -25874,7 +27628,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>6</v>
       </c>
@@ -25894,7 +27648,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>6</v>
       </c>
@@ -25914,7 +27668,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>6</v>
       </c>
@@ -25934,7 +27688,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>6</v>
       </c>
@@ -25954,7 +27708,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>6</v>
       </c>
@@ -25974,7 +27728,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>6</v>
       </c>
@@ -25994,7 +27748,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>6</v>
       </c>
@@ -26014,7 +27768,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>6</v>
       </c>
@@ -26034,7 +27788,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>6</v>
       </c>
@@ -26054,7 +27808,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>6</v>
       </c>
@@ -26074,7 +27828,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>6</v>
       </c>
@@ -26094,7 +27848,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>6</v>
       </c>
@@ -26114,7 +27868,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>6</v>
       </c>
@@ -26134,7 +27888,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>6</v>
       </c>
@@ -26154,7 +27908,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>6</v>
       </c>
@@ -26174,7 +27928,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>6</v>
       </c>
@@ -26194,7 +27948,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>6</v>
       </c>
@@ -26214,7 +27968,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>6</v>
       </c>
@@ -26234,7 +27988,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>6</v>
       </c>
@@ -26254,7 +28008,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>6</v>
       </c>
@@ -26274,7 +28028,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>6</v>
       </c>
@@ -26294,7 +28048,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>6</v>
       </c>
@@ -26331,18 +28085,18 @@
       <selection activeCell="J4" sqref="J4:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="80.88671875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="80.85546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -26362,7 +28116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -26382,7 +28136,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -26411,7 +28165,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -26443,7 +28197,7 @@
         <v>110.21753699577968</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -26475,7 +28229,7 @@
         <v>114.77304764589795</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -26507,7 +28261,7 @@
         <v>118.99540757749712</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -26539,7 +28293,7 @@
         <v>114.16763931489373</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -26571,7 +28325,7 @@
         <v>119.85480943738656</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -26603,7 +28357,7 @@
         <v>118.39181981859565</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -26635,7 +28389,7 @@
         <v>111.53846153846153</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -26655,7 +28409,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>422</v>
       </c>
@@ -26675,7 +28429,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>424</v>
       </c>
@@ -26695,7 +28449,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>424</v>
       </c>
@@ -26715,7 +28469,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>424</v>
       </c>
@@ -26735,7 +28489,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>424</v>
       </c>
@@ -26755,7 +28509,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>424</v>
       </c>
@@ -26775,7 +28529,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>424</v>
       </c>
@@ -26795,7 +28549,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>424</v>
       </c>
@@ -26815,7 +28569,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>424</v>
       </c>
@@ -26835,7 +28589,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>424</v>
       </c>
@@ -26855,7 +28609,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>424</v>
       </c>
@@ -26875,7 +28629,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>435</v>
       </c>
@@ -26895,7 +28649,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>437</v>
       </c>
@@ -26915,7 +28669,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>439</v>
       </c>
@@ -26935,7 +28689,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>441</v>
       </c>
@@ -26971,17 +28725,17 @@
       <selection activeCell="J7" sqref="J7:J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="80.88671875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="80.85546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -27001,7 +28755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -27021,7 +28775,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -27041,7 +28795,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -27061,7 +28815,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -27081,7 +28835,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -27110,7 +28864,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -27141,7 +28895,7 @@
         <v>70.28582296364722</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -27172,7 +28926,7 @@
         <v>64.262287379005741</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -27203,7 +28957,7 @@
         <v>60.041331802525825</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -27234,7 +28988,7 @@
         <v>68.099400124860892</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -27265,7 +29019,7 @@
         <v>51.506352087114337</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>422</v>
       </c>
@@ -27296,7 +29050,7 @@
         <v>69.314128477766076</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>422</v>
       </c>
@@ -27327,7 +29081,7 @@
         <v>33.257918552036202</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>422</v>
       </c>
@@ -27347,7 +29101,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>422</v>
       </c>
@@ -27367,7 +29121,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>422</v>
       </c>
@@ -27387,7 +29141,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>422</v>
       </c>
@@ -27407,7 +29161,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>422</v>
       </c>
@@ -27427,7 +29181,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>422</v>
       </c>
@@ -27447,7 +29201,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>422</v>
       </c>
@@ -27467,7 +29221,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>422</v>
       </c>
@@ -27487,7 +29241,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>424</v>
       </c>
@@ -27507,7 +29261,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>424</v>
       </c>
@@ -27527,7 +29281,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>424</v>
       </c>
@@ -27547,7 +29301,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>424</v>
       </c>
@@ -27567,7 +29321,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>424</v>
       </c>
@@ -27587,7 +29341,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>424</v>
       </c>
@@ -27607,7 +29361,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>424</v>
       </c>
@@ -27627,7 +29381,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>424</v>
       </c>
@@ -27647,7 +29401,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>424</v>
       </c>
@@ -27667,7 +29421,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>424</v>
       </c>
@@ -27687,7 +29441,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>435</v>
       </c>
@@ -27707,7 +29461,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>437</v>
       </c>
@@ -27727,7 +29481,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>439</v>
       </c>
@@ -27747,7 +29501,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>441</v>
       </c>
@@ -27767,7 +29521,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>441</v>
       </c>
@@ -27787,7 +29541,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>441</v>
       </c>
@@ -27823,17 +29577,17 @@
       <selection activeCell="J4" sqref="J4:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="80.88671875" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="80.85546875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -27853,7 +29607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -27873,7 +29627,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>422</v>
       </c>
@@ -27902,7 +29656,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>424</v>
       </c>
@@ -27934,7 +29688,7 @@
         <v>36.354579869224217</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>435</v>
       </c>
@@ -27964,7 +29718,7 @@
         <v>50.596748425899818</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>437</v>
       </c>
@@ -27994,7 +29748,7 @@
         <v>50.574052812858781</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>439</v>
       </c>
@@ -28024,7 +29778,7 @@
         <v>50.249721777367604</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>441</v>
       </c>
@@ -28054,7 +29808,7 @@
         <v>50.381125226860256</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I9">
         <f>E7</f>
         <v>200</v>
@@ -28066,7 +29820,7 @@
         <v>40.303020008832419</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I10">
         <f t="shared" si="0"/>
         <v>323</v>
@@ -28088,20 +29842,30 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O40"/>
+  <dimension ref="B1:AF78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" customWidth="1"/>
+    <col min="30" max="31" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:32" ht="60" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>489</v>
       </c>
@@ -28135,8 +29899,32 @@
       <c r="O2" s="2">
         <v>96</v>
       </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="Y2" t="s">
+        <v>503</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>504</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>505</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>506</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>507</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>508</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>509</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B3" s="6">
         <v>96</v>
       </c>
@@ -28172,8 +29960,14 @@
       <c r="O3" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>1E-10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
         <v>100</v>
       </c>
@@ -28208,8 +30002,17 @@
       <c r="O4" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="Y4">
+        <v>6</v>
+      </c>
+      <c r="Z4">
+        <v>3.0027199999999997E-4</v>
+      </c>
+      <c r="AA4">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
         <v>150</v>
       </c>
@@ -28240,8 +30043,17 @@
         <v>30.607738560315248</v>
       </c>
       <c r="O5" s="3"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="Y5">
+        <v>10</v>
+      </c>
+      <c r="Z5">
+        <v>2.9025299999999997E-4</v>
+      </c>
+      <c r="AA5">
+        <v>0.2109</v>
+      </c>
+    </row>
+    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
         <v>152</v>
       </c>
@@ -28273,8 +30085,17 @@
       <c r="O6" s="1">
         <v>323</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="Y6">
+        <v>12</v>
+      </c>
+      <c r="Z6">
+        <v>2.2213108469999998</v>
+      </c>
+      <c r="AA6">
+        <v>4.6806999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>170</v>
       </c>
@@ -28299,8 +30120,17 @@
       <c r="K7">
         <v>2007.6682000000001</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="Y7">
+        <v>13</v>
+      </c>
+      <c r="Z7">
+        <v>332.52212059999999</v>
+      </c>
+      <c r="AA7">
+        <v>22.6935</v>
+      </c>
+    </row>
+    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>200</v>
       </c>
@@ -28322,8 +30152,20 @@
       <c r="I8">
         <v>451.28489999999999</v>
       </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="Y8">
+        <v>14</v>
+      </c>
+      <c r="Z8">
+        <v>2007.6682000000001</v>
+      </c>
+      <c r="AA8">
+        <v>102.376</v>
+      </c>
+      <c r="AF8">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>323</v>
       </c>
@@ -28339,8 +30181,254 @@
       <c r="F9" s="10" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y9">
+        <v>15</v>
+      </c>
+      <c r="AA9">
+        <v>451.28489999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="W10">
+        <v>6</v>
+      </c>
+      <c r="Y10">
+        <v>17</v>
+      </c>
+      <c r="AF10">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="W11">
+        <v>10</v>
+      </c>
+      <c r="Y11">
+        <v>21</v>
+      </c>
+      <c r="AF11">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="W12">
+        <v>12</v>
+      </c>
+      <c r="Y12">
+        <v>24</v>
+      </c>
+      <c r="AF12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="W13">
+        <v>13</v>
+      </c>
+      <c r="Y13">
+        <v>29</v>
+      </c>
+      <c r="AF13">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="W14">
+        <v>14</v>
+      </c>
+      <c r="Y14">
+        <v>33</v>
+      </c>
+      <c r="AF14">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="U15">
+        <v>6</v>
+      </c>
+      <c r="W15">
+        <v>15</v>
+      </c>
+      <c r="Y15">
+        <v>53</v>
+      </c>
+      <c r="AF15">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="U16">
+        <v>10</v>
+      </c>
+      <c r="Y16">
+        <v>96</v>
+      </c>
+      <c r="AB16" s="7">
+        <v>0.27805547714233397</v>
+      </c>
+      <c r="AC16" s="7">
+        <v>1.0412428855895997</v>
+      </c>
+      <c r="AD16">
+        <v>2.8529000282287598</v>
+      </c>
+      <c r="AE16">
+        <v>92.251279830932617</v>
+      </c>
+    </row>
+    <row r="17" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="U17">
+        <v>12</v>
+      </c>
+      <c r="Y17">
+        <v>100</v>
+      </c>
+      <c r="AB17" s="7">
+        <v>0.67440104484558105</v>
+      </c>
+      <c r="AC17" s="7">
+        <v>2.6414248228073118</v>
+      </c>
+      <c r="AD17">
+        <v>6.6530065536499023</v>
+      </c>
+      <c r="AE17">
+        <v>95.293201446533203</v>
+      </c>
+    </row>
+    <row r="18" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="U18">
+        <v>13</v>
+      </c>
+      <c r="Y18">
+        <v>150</v>
+      </c>
+      <c r="AB18" s="7">
+        <v>2.4660522222518919</v>
+      </c>
+      <c r="AC18" s="7">
+        <v>12.272802829742432</v>
+      </c>
+      <c r="AD18">
+        <v>33.74681568145752</v>
+      </c>
+      <c r="AE18">
+        <v>865.183012247085</v>
+      </c>
+      <c r="AF18">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="U19">
+        <v>14</v>
+      </c>
+      <c r="Y19">
+        <v>152</v>
+      </c>
+      <c r="AB19" s="7">
+        <v>6.7798469066619873</v>
+      </c>
+      <c r="AC19" s="7">
+        <v>108.35242223739624</v>
+      </c>
+      <c r="AD19">
+        <v>365.97075104710001</v>
+      </c>
+      <c r="AE19">
+        <v>732.07874274253845</v>
+      </c>
+    </row>
+    <row r="20" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="U20">
+        <v>15</v>
+      </c>
+      <c r="Y20">
+        <v>170</v>
+      </c>
+      <c r="AB20" s="7">
+        <v>7.7829630374908447</v>
+      </c>
+      <c r="AC20" s="7">
+        <v>111.60823559761047</v>
+      </c>
+      <c r="AD20">
+        <v>382.03482580184937</v>
+      </c>
+    </row>
+    <row r="21" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="U21" s="6">
+        <v>323</v>
+      </c>
+      <c r="Y21">
+        <v>200</v>
+      </c>
+      <c r="AB21" s="7">
+        <v>9.825824499130249</v>
+      </c>
+      <c r="AC21" s="7"/>
+      <c r="AD21">
+        <v>453.57038998603798</v>
+      </c>
+      <c r="AE21">
+        <v>1532.0787</v>
+      </c>
+    </row>
+    <row r="22" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y22">
+        <v>202</v>
+      </c>
+      <c r="AF22">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y23">
+        <v>323</v>
+      </c>
+      <c r="AC23" s="7">
+        <v>99.236297369003296</v>
+      </c>
+    </row>
+    <row r="24" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y24">
+        <v>442</v>
+      </c>
+      <c r="AF24">
+        <v>0.36099999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y25">
+        <v>666</v>
+      </c>
+      <c r="AF25">
+        <v>1.0069999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y26">
+        <v>1002</v>
+      </c>
+      <c r="AF26">
+        <v>2.9279999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y27">
+        <v>2392</v>
+      </c>
+      <c r="AF27">
+        <v>31.777999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="21:32" x14ac:dyDescent="0.25">
+      <c r="Y28">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
         <v>500</v>
       </c>
@@ -28350,7 +30438,7 @@
       </c>
       <c r="E33" s="11"/>
     </row>
-    <row r="34" spans="2:5" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:25" ht="45" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>443</v>
       </c>
@@ -28364,91 +30452,485 @@
         <v>494</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="6">
-        <v>6</v>
-      </c>
-      <c r="C35" s="6">
+    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>150</v>
+      </c>
+      <c r="G36">
+        <v>19</v>
+      </c>
+      <c r="W36" t="s">
+        <v>510</v>
+      </c>
+      <c r="X36">
+        <v>4276</v>
+      </c>
+      <c r="Y36">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>202</v>
+      </c>
+      <c r="G37">
+        <v>21</v>
+      </c>
+      <c r="W37" t="s">
+        <v>511</v>
+      </c>
+      <c r="X37">
+        <v>2961</v>
+      </c>
+      <c r="Y37">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>323</v>
+      </c>
+      <c r="G38">
+        <v>24</v>
+      </c>
+      <c r="W38" t="s">
+        <v>512</v>
+      </c>
+      <c r="X38">
+        <v>3280</v>
+      </c>
+      <c r="Y38">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>442</v>
+      </c>
+      <c r="G39">
+        <v>31</v>
+      </c>
+      <c r="W39" t="s">
+        <v>513</v>
+      </c>
+      <c r="X39">
+        <v>1535</v>
+      </c>
+      <c r="Y39">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>666</v>
+      </c>
+      <c r="G40">
+        <v>49</v>
+      </c>
+      <c r="W40" t="s">
+        <v>514</v>
+      </c>
+      <c r="X40">
+        <v>3042</v>
+      </c>
+      <c r="Y40">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>1002</v>
+      </c>
+      <c r="G41">
+        <v>102</v>
+      </c>
+      <c r="W41" t="s">
+        <v>515</v>
+      </c>
+      <c r="X41">
+        <v>1750</v>
+      </c>
+      <c r="Y41">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>2392</v>
+      </c>
+      <c r="G42">
+        <v>447</v>
+      </c>
+      <c r="W42" t="s">
+        <v>516</v>
+      </c>
+      <c r="X42">
+        <v>2405</v>
+      </c>
+      <c r="Y42">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="W43" t="s">
+        <v>517</v>
+      </c>
+      <c r="X43">
+        <v>10690</v>
+      </c>
+      <c r="Y43">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="W44" t="s">
+        <v>518</v>
+      </c>
+      <c r="X44">
+        <v>10160</v>
+      </c>
+      <c r="Y44">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="W45" t="s">
+        <v>519</v>
+      </c>
+      <c r="X45">
+        <v>57788</v>
+      </c>
+      <c r="Y45">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>520</v>
+      </c>
+      <c r="X46">
+        <v>80860</v>
+      </c>
+      <c r="Y46">
+        <v>0.36099999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B47" s="6">
+        <v>6</v>
+      </c>
+      <c r="C47" s="6">
         <v>28</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>521</v>
+      </c>
+      <c r="X47">
+        <v>452972</v>
+      </c>
+      <c r="Y47">
+        <v>1.0069999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B48" s="6">
+        <v>12</v>
+      </c>
+      <c r="C48" s="6">
+        <v>44</v>
+      </c>
+      <c r="D48" s="6">
         <v>96</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E48" s="6">
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="6">
+      <c r="W48" t="s">
+        <v>522</v>
+      </c>
+      <c r="X48">
+        <v>418645</v>
+      </c>
+      <c r="Y48">
+        <v>2.9279999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B49" s="6">
+        <v>14</v>
+      </c>
+      <c r="C49" s="6">
+        <v>67</v>
+      </c>
+      <c r="D49" s="6">
+        <v>100</v>
+      </c>
+      <c r="E49" s="6">
+        <v>29</v>
+      </c>
+      <c r="W49" t="s">
+        <v>523</v>
+      </c>
+      <c r="X49">
+        <v>624908</v>
+      </c>
+      <c r="Y49">
+        <v>31.777999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B50" s="6">
+        <v>17</v>
+      </c>
+      <c r="C50" s="6">
+        <v>447</v>
+      </c>
+      <c r="D50" s="6">
+        <v>150</v>
+      </c>
+      <c r="E50" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B51" s="6">
+        <v>19</v>
+      </c>
+      <c r="C51" s="6">
+        <v>1896</v>
+      </c>
+      <c r="D51" s="6">
+        <v>152</v>
+      </c>
+      <c r="E51" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B52" s="6">
+        <v>20</v>
+      </c>
+      <c r="C52" s="6">
+        <v>4194</v>
+      </c>
+      <c r="D52" s="6">
+        <v>170</v>
+      </c>
+      <c r="E52" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="D53" s="6">
+        <v>323</v>
+      </c>
+      <c r="E53" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="E61" s="6">
+        <v>6</v>
+      </c>
+      <c r="F61" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="E62" s="6">
         <v>12</v>
       </c>
-      <c r="C36" s="6">
+      <c r="F62" s="6">
         <v>44</v>
       </c>
-      <c r="D36" s="6">
+    </row>
+    <row r="63" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="E63" s="6">
+        <v>14</v>
+      </c>
+      <c r="F63" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="E64" s="6">
+        <v>17</v>
+      </c>
+      <c r="F64" s="6">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="65" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E65" s="6">
+        <v>19</v>
+      </c>
+      <c r="F65" s="6">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="66" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E66" s="6">
+        <v>20</v>
+      </c>
+      <c r="F66" s="6">
+        <v>4194</v>
+      </c>
+    </row>
+    <row r="67" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E67" s="6">
+        <v>96</v>
+      </c>
+      <c r="G67">
+        <v>30</v>
+      </c>
+      <c r="L67" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E68" s="6">
         <v>100</v>
       </c>
-      <c r="E36" s="6">
+      <c r="G68">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="6">
-        <v>14</v>
-      </c>
-      <c r="C37" s="6">
+      <c r="L68" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E69" s="6">
+        <v>150</v>
+      </c>
+      <c r="G69">
+        <v>30</v>
+      </c>
+      <c r="L69" s="6">
         <v>67</v>
       </c>
-      <c r="D37" s="6">
+    </row>
+    <row r="70" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E70">
         <v>150</v>
       </c>
-      <c r="E37" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="6">
-        <v>17</v>
-      </c>
-      <c r="C38" s="6">
+      <c r="G70">
+        <v>31</v>
+      </c>
+      <c r="H70">
+        <v>19</v>
+      </c>
+      <c r="L70" s="6">
         <v>447</v>
       </c>
-      <c r="D38" s="6">
+    </row>
+    <row r="71" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E71" s="6">
         <v>152</v>
       </c>
-      <c r="E38" s="6">
+      <c r="G71">
+        <v>29</v>
+      </c>
+      <c r="L71" s="6">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="72" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E72" s="6">
+        <v>170</v>
+      </c>
+      <c r="G72">
         <v>31</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="6">
-        <v>19</v>
-      </c>
-      <c r="C39" s="6">
-        <v>1896</v>
-      </c>
-      <c r="D39" s="6">
-        <v>170</v>
-      </c>
-      <c r="E39" s="6">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="6">
-        <v>20</v>
-      </c>
-      <c r="C40" s="6">
+      <c r="L72" s="6">
         <v>4194</v>
       </c>
-      <c r="D40" s="6">
+    </row>
+    <row r="73" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <v>202</v>
+      </c>
+      <c r="H73">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E74">
         <v>323</v>
       </c>
-      <c r="E40" s="6">
+      <c r="H74">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <v>442</v>
+      </c>
+      <c r="H75">
         <v>31</v>
       </c>
     </row>
+    <row r="76" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <v>666</v>
+      </c>
+      <c r="H76">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <v>1002</v>
+      </c>
+      <c r="H77">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <v>2392</v>
+      </c>
+      <c r="H78">
+        <v>447</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E61:E79">
+    <sortCondition ref="E60:E79"/>
+  </sortState>
   <mergeCells count="2">
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:E33"/>
@@ -28467,16 +30949,16 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="80.88671875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="80.85546875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -28496,7 +30978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -28516,7 +30998,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>422</v>
       </c>
@@ -28536,7 +31018,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>424</v>
       </c>
@@ -28556,7 +31038,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>439</v>
       </c>
@@ -28576,7 +31058,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>441</v>
       </c>
@@ -28610,7 +31092,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
